--- a/samples/example-planning.xlsx
+++ b/samples/example-planning.xlsx
@@ -5,26 +5,27 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joffr\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\agenda-generator\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{31741EDB-26A7-488B-8ADD-FE3FEACB3EBA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EEC4942E-0886-49AA-8E51-C0EF3D003EED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9450" yWindow="3240" windowWidth="12330" windowHeight="6060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="General AIR-INV" sheetId="6" r:id="rId1"/>
+    <sheet name="Planning" sheetId="6" r:id="rId1"/>
     <sheet name="Interviewers" sheetId="7" r:id="rId2"/>
+    <sheet name="Global info" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'General AIR-INV'!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Planning!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>RECRUITMENT DAY XXX/XXX - XX/XX/2018</t>
   </si>
@@ -173,13 +174,46 @@
     <t>Recruitment Specialist</t>
   </si>
   <si>
-    <t>Anana</t>
-  </si>
-  <si>
     <t>RECRUITMENT DAY AIR-DGA 2018-09-05</t>
   </si>
   <si>
-    <t>13:00 - 17:00</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>AIR</t>
+  </si>
+  <si>
+    <t>DGA</t>
+  </si>
+  <si>
+    <t>Airlines</t>
+  </si>
+  <si>
+    <t>Digital for Airlines</t>
+  </si>
+  <si>
+    <t>Division Code</t>
+  </si>
+  <si>
+    <t>Subdivision Code</t>
+  </si>
+  <si>
+    <t>Division Name</t>
+  </si>
+  <si>
+    <t>Subdivision Name</t>
+  </si>
+  <si>
+    <t>17:00 - 18:00</t>
+  </si>
+  <si>
+    <t>17:00 - 19:00</t>
+  </si>
+  <si>
+    <t>DEBRIEFING (BE1749-Paris)</t>
+  </si>
+  <si>
+    <t>Anana Caca</t>
   </si>
 </sst>
 </file>
@@ -531,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,12 +652,6 @@
     <xf numFmtId="164" fontId="9" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -639,6 +667,8 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -658,6 +688,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,9 +746,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,7 +1091,7 @@
   <dimension ref="A2:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1074,7 +1110,7 @@
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="43"/>
       <c r="D2" s="43"/>
@@ -1110,7 +1146,7 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1130,41 +1166,41 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="32" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="34" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1241,22 +1277,22 @@
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>0.70833333333333337</v>
+      <c r="A15" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -1297,7 +1333,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -1309,10 +1345,10 @@
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="9"/>
@@ -1404,7 +1440,7 @@
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="29" t="s">
         <v>37</v>
       </c>
@@ -1413,11 +1449,11 @@
       <c r="M27" s="17"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>0.70833333333333337</v>
+      <c r="A28" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1437,11 +1473,11 @@
       <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4" t="s">
@@ -1450,10 +1486,10 @@
       <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="9"/>
@@ -1510,7 +1546,7 @@
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="29" t="s">
         <v>37</v>
       </c>
@@ -1518,11 +1554,11 @@
       <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>0.70833333333333337</v>
+      <c r="A39" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1541,10 +1577,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -1580,34 +1617,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -1658,20 +1695,20 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
@@ -1719,4 +1756,65 @@
     <oddHeader>&amp;R&amp;"Calibri"&amp;12 CONFIDENTIAL &amp; RESTRICTED&amp;1#</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D58D4F-ADF0-4A64-8AB6-7857E1A33B11}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="35">
+        <v>25570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/samples/example-planning.xlsx
+++ b/samples/example-planning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\agenda-generator\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_clones\agenda-generator\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EEC4942E-0886-49AA-8E51-C0EF3D003EED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9450" yWindow="3240" windowWidth="12330" windowHeight="6060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9450" yWindow="3240" windowWidth="12330" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="6" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="62">
   <si>
     <t>RECRUITMENT DAY XXX/XXX - XX/XX/2018</t>
   </si>
@@ -205,9 +204,6 @@
   </si>
   <si>
     <t>17:00 - 18:00</t>
-  </si>
-  <si>
-    <t>17:00 - 19:00</t>
   </si>
   <si>
     <t>DEBRIEFING (BE1749-Paris)</t>
@@ -219,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -840,23 +836,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -892,23 +871,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1084,14 +1046,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1254,7 @@
         <v>59</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -1453,7 +1415,7 @@
         <v>59</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1477,7 +1439,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="4" t="s">
@@ -1555,10 +1517,10 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -1592,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1759,7 +1721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D58D4F-ADF0-4A64-8AB6-7857E1A33B11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1816,5 +1778,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12 CONFIDENTIAL &amp; RESTRICTED&amp;1#</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>